--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ATBRCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ATBRCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>ATBRCA</t>
-  </si>
-  <si>
-    <t>0.828894398612736</t>
-  </si>
-  <si>
-    <t>-2.66323812661747</t>
-  </si>
-  <si>
-    <t>-0.923787718576929</t>
-  </si>
-  <si>
-    <t>-0.639420333843727</t>
-  </si>
-  <si>
-    <t>2.01945139863043</t>
-  </si>
-  <si>
-    <t>-3.05123977456686</t>
-  </si>
-  <si>
-    <t>-0.931715636968381</t>
-  </si>
-  <si>
-    <t>-1.06906861967692</t>
-  </si>
-  <si>
-    <t>1.6085511363166</t>
-  </si>
-  <si>
-    <t>-2.04744617434811</t>
-  </si>
-  <si>
-    <t>-0.883744975770338</t>
-  </si>
-  <si>
-    <t>-0.459491795562862</t>
-  </si>
-  <si>
-    <t>1.94204749804035</t>
-  </si>
-  <si>
-    <t>-2.4107611323432</t>
-  </si>
-  <si>
-    <t>-0.0409741764545863</t>
-  </si>
-  <si>
-    <t>-0.116541152735017</t>
-  </si>
-  <si>
-    <t>1.62152022670864</t>
-  </si>
-  <si>
-    <t>0.288359156981056</t>
-  </si>
-  <si>
-    <t>1.40994556224607</t>
-  </si>
-  <si>
-    <t>0.412755534330877</t>
-  </si>
-  <si>
-    <t>3.98116871362421</t>
-  </si>
-  <si>
-    <t>0.223966506622737</t>
-  </si>
-  <si>
-    <t>2.26511892328188</t>
-  </si>
-  <si>
-    <t>-1.01197610087112</t>
-  </si>
-  <si>
-    <t>3.02778763491916</t>
-  </si>
-  <si>
-    <t>1.85862492599259</t>
-  </si>
-  <si>
-    <t>0.760805552420379</t>
-  </si>
-  <si>
-    <t>-1.07774458558642</t>
-  </si>
-  <si>
-    <t>-0.0283065729563745</t>
-  </si>
-  <si>
-    <t>1.80767942967022</t>
-  </si>
-  <si>
-    <t>2.40956252481151</t>
-  </si>
-  <si>
-    <t>-3.24818284338804</t>
-  </si>
-  <si>
-    <t>-2.02474844585624</t>
-  </si>
-  <si>
-    <t>-2.88867098327222</t>
-  </si>
-  <si>
-    <t>-0.205331829482763</t>
-  </si>
-  <si>
-    <t>-1.28611095569446</t>
-  </si>
-  <si>
-    <t>0.27306949945725</t>
-  </si>
-  <si>
-    <t>-1.25988200540025</t>
-  </si>
-  <si>
-    <t>-1.51221846774527</t>
-  </si>
-  <si>
-    <t>-0.0494861462786602</t>
-  </si>
-  <si>
-    <t>-0.163818597894849</t>
-  </si>
-  <si>
-    <t>-1.40770489908374</t>
-  </si>
-  <si>
-    <t>1.71019485091372</t>
-  </si>
-  <si>
-    <t>0.251581183367165</t>
-  </si>
-  <si>
-    <t>1.52097164882438</t>
-  </si>
-  <si>
-    <t>-0.167281096962348</t>
-  </si>
-  <si>
-    <t>-0.846195048968085</t>
-  </si>
-  <si>
-    <t>0.922016523566676</t>
-  </si>
-  <si>
-    <t>-0.767815968638544</t>
-  </si>
-  <si>
-    <t>0.881028255282047</t>
-  </si>
-  <si>
-    <t>0.609287245924982</t>
-  </si>
-  <si>
-    <t>1.31801500104657</t>
-  </si>
-  <si>
-    <t>-0.261975043483993</t>
-  </si>
-  <si>
-    <t>2.48096842295965</t>
-  </si>
-  <si>
-    <t>1.5990887285822</t>
-  </si>
-  <si>
-    <t>1.50084566100585</t>
-  </si>
-  <si>
-    <t>-3.10197709141359</t>
-  </si>
-  <si>
-    <t>-1.00978936897197</t>
-  </si>
-  <si>
-    <t>0.113233773440825</t>
-  </si>
-  <si>
-    <t>-1.40583375039138</t>
-  </si>
-  <si>
-    <t>-3.17143605523139</t>
-  </si>
-  <si>
-    <t>-1.28616232664324</t>
-  </si>
-  <si>
-    <t>-0.304809195405099</t>
-  </si>
-  <si>
-    <t>-0.615894707109398</t>
-  </si>
-  <si>
-    <t>0.438250839593067</t>
-  </si>
-  <si>
-    <t>0.297604133686711</t>
-  </si>
-  <si>
-    <t>-0.164490961598474</t>
-  </si>
-  <si>
-    <t>0.616679267543134</t>
-  </si>
-  <si>
-    <t>-0.687397378859572</t>
-  </si>
-  <si>
-    <t>1.84638392712026</t>
-  </si>
-  <si>
-    <t>0.311225730812019</t>
-  </si>
-  <si>
-    <t>1.04023744570142</t>
-  </si>
-  <si>
-    <t>-2.59666114794881</t>
-  </si>
-  <si>
-    <t>0.405975312132973</t>
-  </si>
-  <si>
-    <t>-0.881756743526168</t>
-  </si>
-  <si>
-    <t>0.329783791260262</t>
-  </si>
-  <si>
-    <t>-1.64761182459048</t>
-  </si>
-  <si>
-    <t>-8.5617558656019</t>
-  </si>
-  <si>
-    <t>2.29226973158568</t>
-  </si>
-  <si>
-    <t>1.72560441733548</t>
-  </si>
-  <si>
-    <t>0.785295852718548</t>
-  </si>
-  <si>
-    <t>3.89918413187545</t>
-  </si>
-  <si>
-    <t>-1.0616854104634</t>
-  </si>
-  <si>
-    <t>4.27804367253943</t>
+    <t>0.00487528166212314</t>
+  </si>
+  <si>
+    <t>-4.02744295708055</t>
+  </si>
+  <si>
+    <t>-2.9915807084002</t>
+  </si>
+  <si>
+    <t>-0.916467624778902</t>
+  </si>
+  <si>
+    <t>-1.83534393089461</t>
+  </si>
+  <si>
+    <t>-3.26098619332151</t>
+  </si>
+  <si>
+    <t>-1.918255001413</t>
+  </si>
+  <si>
+    <t>-1.64040165232642</t>
+  </si>
+  <si>
+    <t>-0.0683370759530693</t>
+  </si>
+  <si>
+    <t>-1.06184851499201</t>
+  </si>
+  <si>
+    <t>-4.08961879077324</t>
+  </si>
+  <si>
+    <t>-0.381552816299054</t>
+  </si>
+  <si>
+    <t>-1.22161122924565</t>
+  </si>
+  <si>
+    <t>-3.01097399236378</t>
+  </si>
+  <si>
+    <t>-3.77557184366777</t>
+  </si>
+  <si>
+    <t>4.6984529702483</t>
+  </si>
+  <si>
+    <t>-2.86760317827369</t>
+  </si>
+  <si>
+    <t>-3.81262750678148</t>
+  </si>
+  <si>
+    <t>0.564670545859101</t>
+  </si>
+  <si>
+    <t>-2.08501388455453</t>
+  </si>
+  <si>
+    <t>2.67122310228006</t>
+  </si>
+  <si>
+    <t>-6.32865631709049</t>
+  </si>
+  <si>
+    <t>-3.96290554657944</t>
+  </si>
+  <si>
+    <t>-2.63524300689328</t>
+  </si>
+  <si>
+    <t>2.43515194415382</t>
+  </si>
+  <si>
+    <t>-1.93572363464058</t>
+  </si>
+  <si>
+    <t>-0.744264392795003</t>
+  </si>
+  <si>
+    <t>-6.0713193722069</t>
+  </si>
+  <si>
+    <t>-0.113880621915669</t>
+  </si>
+  <si>
+    <t>4.01662597631289</t>
+  </si>
+  <si>
+    <t>-2.77709359131164</t>
+  </si>
+  <si>
+    <t>6.84571082825734</t>
+  </si>
+  <si>
+    <t>12.8953527964641</t>
+  </si>
+  <si>
+    <t>-14.3202060108485</t>
+  </si>
+  <si>
+    <t>35.807578524621</t>
+  </si>
+  <si>
+    <t>-23.6471173017401</t>
+  </si>
+  <si>
+    <t>5.7564286558152</t>
+  </si>
+  <si>
+    <t>-35.2558803578813</t>
+  </si>
+  <si>
+    <t>10.1191726452457</t>
+  </si>
+  <si>
+    <t>-7.60713106318268</t>
+  </si>
+  <si>
+    <t>-2.82964471755893</t>
+  </si>
+  <si>
+    <t>4.25724787862845</t>
+  </si>
+  <si>
+    <t>-2.35993716420087</t>
+  </si>
+  <si>
+    <t>-8.61144423832467</t>
+  </si>
+  <si>
+    <t>6.74167177944278</t>
+  </si>
+  <si>
+    <t>-10.1662742585457</t>
+  </si>
+  <si>
+    <t>-4.09959343700115</t>
+  </si>
+  <si>
+    <t>5.87463816257319</t>
+  </si>
+  <si>
+    <t>-10.8437284793662</t>
+  </si>
+  <si>
+    <t>5.72417779846215</t>
+  </si>
+  <si>
+    <t>-8.68464461446987</t>
+  </si>
+  <si>
+    <t>17.6926971684418</t>
+  </si>
+  <si>
+    <t>1.41549254482211</t>
+  </si>
+  <si>
+    <t>-0.565274563868769</t>
+  </si>
+  <si>
+    <t>-17.3411581697657</t>
+  </si>
+  <si>
+    <t>2.17662755428222</t>
+  </si>
+  <si>
+    <t>1.94992674146442</t>
+  </si>
+  <si>
+    <t>-13.2460398344531</t>
+  </si>
+  <si>
+    <t>0.125339841172973</t>
+  </si>
+  <si>
+    <t>-6.13035281946054</t>
+  </si>
+  <si>
+    <t>-5.04057941120087</t>
+  </si>
+  <si>
+    <t>7.25769325546409</t>
+  </si>
+  <si>
+    <t>-10.7357717150605</t>
+  </si>
+  <si>
+    <t>-1.03540572894386</t>
+  </si>
+  <si>
+    <t>-4.17476319692855</t>
+  </si>
+  <si>
+    <t>-1.51581196105627</t>
+  </si>
+  <si>
+    <t>-4.49863804421511</t>
+  </si>
+  <si>
+    <t>3.17220983946348</t>
+  </si>
+  <si>
+    <t>-5.69070604098772</t>
+  </si>
+  <si>
+    <t>0.719365659827361</t>
+  </si>
+  <si>
+    <t>-1.93259851375112</t>
+  </si>
+  <si>
+    <t>-1.46450190940797</t>
+  </si>
+  <si>
+    <t>-0.511234639859197</t>
+  </si>
+  <si>
+    <t>-0.107794332216059</t>
+  </si>
+  <si>
+    <t>1.16248204307107</t>
+  </si>
+  <si>
+    <t>-5.2368796627967</t>
+  </si>
+  <si>
+    <t>13.7916356869944</t>
+  </si>
+  <si>
+    <t>86.786565672856</t>
+  </si>
+  <si>
+    <t>53.775990371161</t>
+  </si>
+  <si>
+    <t>62.5996409010233</t>
+  </si>
+  <si>
+    <t>-65.3211263617214</t>
+  </si>
+  <si>
+    <t>22.7807798408448</t>
+  </si>
+  <si>
+    <t>-65.8432702561415</t>
+  </si>
+  <si>
+    <t>21.0191278888078</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
